--- a/public/Reportes-Sukhavati-Yoga/assets/templates/Plantilla_Cupones.xlsx
+++ b/public/Reportes-Sukhavati-Yoga/assets/templates/Plantilla_Cupones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d354a26209d14364/Desktop/Sukhavati Yoga/Catalogos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\SukhavatiYoga\Reportes-Sukhavati-Yoga\public\Reportes-Sukhavati-Yoga\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_E4329FDA97D9AECF8A160B497B27C89A58B67F7F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F95A4802-36D7-47D6-BF28-8634D53C22ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4238734F-8F1C-4CA3-A32C-8808CABD5BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3465" windowWidth="43200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13995" yWindow="3975" windowWidth="43200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,12 +66,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -101,12 +107,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,16 +423,16 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD41"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -432,7 +441,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
